--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,8 +425,12 @@
       <c r="A1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -434,39 +438,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -481,35 +483,24 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D5" t="n">
         <v>13</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E5" t="n">
         <v>14</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F5" t="n">
         <v>15</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G5" t="n">
         <v>16</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,86 +423,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
+        <v>-456</v>
+      </c>
+      <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+        <v>123456</v>
+      </c>
+      <c r="B3" t="n">
+        <v>213543</v>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-456</v>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3543545</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
